--- a/Data_file/SCG.xlsx
+++ b/Data_file/SCG.xlsx
@@ -653,7 +653,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
